--- a/Prescription_sample.xlsx
+++ b/Prescription_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhe/Desktop/R3#3664/MMECalculation/MME_calculation_sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1815CB19-C390-8244-B6F1-E1B35FBF6400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D2F3B-4552-2341-8052-A8D0FCB9FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15260" xr2:uid="{047FF73C-881C-8240-8649-019B908D2EE2}"/>
+    <workbookView xWindow="34500" yWindow="1160" windowWidth="27640" windowHeight="15260" xr2:uid="{047FF73C-881C-8240-8649-019B908D2EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,13 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD79"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -562,13 +565,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5999554728</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44826</v>
       </c>
       <c r="C2">
-        <v>617662598</v>
+        <v>11111</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -597,13 +600,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5999213857</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44700</v>
       </c>
       <c r="C3">
-        <v>590277751</v>
+        <v>11112</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -632,13 +635,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5999156708</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>44242</v>
       </c>
       <c r="C4">
-        <v>502229035</v>
+        <v>11113</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -676,13 +679,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5999156708</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>44302</v>
       </c>
       <c r="C5">
-        <v>518475053</v>
+        <v>11114</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -720,13 +723,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5999156708</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>44337</v>
       </c>
       <c r="C6">
-        <v>518475056</v>
+        <v>11115</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -761,13 +764,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5999156708</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>44270</v>
       </c>
       <c r="C7">
-        <v>502229036</v>
+        <v>11116</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -805,13 +808,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5999156708</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>44371</v>
       </c>
       <c r="C8">
-        <v>533910395</v>
+        <v>11117</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -849,13 +852,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5999156708</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>44210</v>
       </c>
       <c r="C9">
-        <v>502229033</v>
+        <v>11118</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -893,13 +896,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5995983414</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>44342</v>
       </c>
       <c r="C10">
-        <v>528497448</v>
+        <v>11119</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -937,13 +940,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>44336</v>
       </c>
       <c r="C11">
-        <v>523968781</v>
+        <v>11120</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -963,13 +966,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>44551</v>
       </c>
       <c r="C12">
-        <v>562521801</v>
+        <v>11121</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -992,13 +995,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>44340</v>
       </c>
       <c r="C13">
-        <v>523968783</v>
+        <v>11122</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1021,13 +1024,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>44946</v>
       </c>
       <c r="C14">
-        <v>522196399</v>
+        <v>11123</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -1047,13 +1050,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>44946</v>
       </c>
       <c r="C15">
-        <v>523968781</v>
+        <v>11124</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1073,13 +1076,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>45000</v>
       </c>
       <c r="C16">
-        <v>645264604</v>
+        <v>11125</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -1102,13 +1105,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>44252</v>
       </c>
       <c r="C17">
-        <v>510755663</v>
+        <v>11126</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1134,13 +1137,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <v>44399</v>
       </c>
       <c r="C18">
-        <v>535257228</v>
+        <v>11127</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1163,13 +1166,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>44378</v>
       </c>
       <c r="C19">
-        <v>535257225</v>
+        <v>11128</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1195,13 +1198,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>44379</v>
       </c>
       <c r="C20">
-        <v>535257223</v>
+        <v>11129</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -1224,13 +1227,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
         <v>44462</v>
       </c>
       <c r="C21">
-        <v>545046023</v>
+        <v>11130</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1253,13 +1256,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>44522</v>
       </c>
       <c r="C22">
-        <v>559883912</v>
+        <v>11131</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1282,13 +1285,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>44280</v>
       </c>
       <c r="C23">
-        <v>510755670</v>
+        <v>11132</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -1314,13 +1317,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
         <v>44582</v>
       </c>
       <c r="C24">
-        <v>573122730</v>
+        <v>11133</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1343,13 +1346,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>44613</v>
       </c>
       <c r="C25">
-        <v>573122734</v>
+        <v>11134</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1375,13 +1378,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
         <v>44636</v>
       </c>
       <c r="C26">
-        <v>573122740</v>
+        <v>11135</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1404,13 +1407,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
         <v>44784</v>
       </c>
       <c r="C27">
-        <v>599754906</v>
+        <v>11136</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -1436,13 +1439,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>44309</v>
       </c>
       <c r="C28">
-        <v>522196399</v>
+        <v>11137</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -1462,13 +1465,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>44672</v>
       </c>
       <c r="C29">
-        <v>589809902</v>
+        <v>11138</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -1491,13 +1494,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>44944</v>
       </c>
       <c r="C30">
-        <v>635449066</v>
+        <v>11139</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -1520,13 +1523,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>44820</v>
       </c>
       <c r="C31">
-        <v>616168843</v>
+        <v>11140</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -1546,13 +1549,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>44431</v>
       </c>
       <c r="C32">
-        <v>535257233</v>
+        <v>11141</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
@@ -1578,13 +1581,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>44727</v>
       </c>
       <c r="C33">
-        <v>599754898</v>
+        <v>11142</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
@@ -1607,13 +1610,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>44291</v>
       </c>
       <c r="C34">
-        <v>510755672</v>
+        <v>11143</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -1639,13 +1642,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>44819</v>
       </c>
       <c r="C35">
-        <v>616168846</v>
+        <v>11144</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -1671,13 +1674,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
         <v>44847</v>
       </c>
       <c r="C36">
-        <v>616168850</v>
+        <v>11145</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -1703,13 +1706,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <v>45062</v>
       </c>
       <c r="C37">
-        <v>657464181</v>
+        <v>11146</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -1735,13 +1738,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
         <v>45119</v>
       </c>
       <c r="C38">
-        <v>665980395</v>
+        <v>11147</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -1767,13 +1770,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>44880</v>
       </c>
       <c r="C39">
-        <v>625284824</v>
+        <v>11148</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -1799,13 +1802,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
         <v>45033</v>
       </c>
       <c r="C40">
-        <v>657464177</v>
+        <v>11149</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -1828,13 +1831,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <v>44910</v>
       </c>
       <c r="C41">
-        <v>625284827</v>
+        <v>11150</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -1857,13 +1860,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5995663083</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>45092</v>
       </c>
       <c r="C42">
-        <v>665980390</v>
+        <v>11151</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -1889,13 +1892,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5999348474</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1">
         <v>45012</v>
       </c>
       <c r="C43">
-        <v>649896469</v>
+        <v>11152</v>
       </c>
       <c r="D43" t="s">
         <v>32</v>
@@ -1933,13 +1936,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1">
         <v>44406</v>
       </c>
       <c r="C44">
-        <v>533896144</v>
+        <v>11153</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
@@ -1974,13 +1977,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1">
         <v>44340</v>
       </c>
       <c r="C45">
-        <v>480274579</v>
+        <v>11154</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
@@ -2015,13 +2018,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1">
         <v>44998</v>
       </c>
       <c r="C46">
-        <v>643223355</v>
+        <v>11155</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -2056,13 +2059,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <v>44483</v>
       </c>
       <c r="C47">
-        <v>544702256</v>
+        <v>11156</v>
       </c>
       <c r="D47" t="s">
         <v>32</v>
@@ -2097,13 +2100,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <v>44532</v>
       </c>
       <c r="C48">
-        <v>561634656</v>
+        <v>11157</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -2141,13 +2144,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
         <v>44571</v>
       </c>
       <c r="C49">
-        <v>568037824</v>
+        <v>11158</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
@@ -2182,13 +2185,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
         <v>44616</v>
       </c>
       <c r="C50">
-        <v>578251085</v>
+        <v>11159</v>
       </c>
       <c r="D50" t="s">
         <v>32</v>
@@ -2223,13 +2226,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
         <v>44698</v>
       </c>
       <c r="C51">
-        <v>589291674</v>
+        <v>11160</v>
       </c>
       <c r="D51" t="s">
         <v>32</v>
@@ -2264,13 +2267,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <v>44370</v>
       </c>
       <c r="C52">
-        <v>533896138</v>
+        <v>11161</v>
       </c>
       <c r="D52" t="s">
         <v>32</v>
@@ -2305,13 +2308,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
         <v>44655</v>
       </c>
       <c r="C53">
-        <v>578251090</v>
+        <v>11162</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
@@ -2346,13 +2349,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <v>44571</v>
       </c>
       <c r="C54">
-        <v>568037823</v>
+        <v>11163</v>
       </c>
       <c r="D54" t="s">
         <v>32</v>
@@ -2387,13 +2390,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
         <v>44749</v>
       </c>
       <c r="C55">
-        <v>600961576</v>
+        <v>11164</v>
       </c>
       <c r="D55" t="s">
         <v>32</v>
@@ -2428,13 +2431,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
         <v>44826</v>
       </c>
       <c r="C56">
-        <v>613482149</v>
+        <v>11165</v>
       </c>
       <c r="D56" t="s">
         <v>32</v>
@@ -2469,13 +2472,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
         <v>44221</v>
       </c>
       <c r="C57">
-        <v>480274575</v>
+        <v>11166</v>
       </c>
       <c r="D57" t="s">
         <v>32</v>
@@ -2510,13 +2513,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
         <v>44830</v>
       </c>
       <c r="C58">
-        <v>613482147</v>
+        <v>11167</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
@@ -2551,13 +2554,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>45062</v>
       </c>
       <c r="C59">
-        <v>643223358</v>
+        <v>11168</v>
       </c>
       <c r="D59" t="s">
         <v>32</v>
@@ -2592,13 +2595,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <v>44916</v>
       </c>
       <c r="C60">
-        <v>635119753</v>
+        <v>11169</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
@@ -2633,13 +2636,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>44963</v>
       </c>
       <c r="C61">
-        <v>643223350</v>
+        <v>11170</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
@@ -2677,13 +2680,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <v>44883</v>
       </c>
       <c r="C62">
-        <v>613482152</v>
+        <v>11171</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
@@ -2718,13 +2721,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
         <v>45107</v>
       </c>
       <c r="C63">
-        <v>672871196</v>
+        <v>11172</v>
       </c>
       <c r="D63" t="s">
         <v>32</v>
@@ -2759,13 +2762,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
         <v>45107</v>
       </c>
       <c r="C64">
-        <v>643223360</v>
+        <v>11173</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -2800,13 +2803,13 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>5999360476</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
         <v>45103</v>
       </c>
       <c r="C65">
-        <v>643223359</v>
+        <v>11174</v>
       </c>
       <c r="D65" t="s">
         <v>32</v>
@@ -2841,13 +2844,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
         <v>45012</v>
       </c>
       <c r="C66">
-        <v>642996907</v>
+        <v>11175</v>
       </c>
       <c r="D66" t="s">
         <v>32</v>
@@ -2870,13 +2873,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
         <v>44965</v>
       </c>
       <c r="C67">
-        <v>642996904</v>
+        <v>11176</v>
       </c>
       <c r="D67" t="s">
         <v>32</v>
@@ -2899,13 +2902,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
         <v>44915</v>
       </c>
       <c r="C68">
-        <v>625381741</v>
+        <v>11177</v>
       </c>
       <c r="D68" t="s">
         <v>32</v>
@@ -2928,13 +2931,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1">
         <v>44782</v>
       </c>
       <c r="C69">
-        <v>597204589</v>
+        <v>11178</v>
       </c>
       <c r="D69" t="s">
         <v>32</v>
@@ -2960,13 +2963,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1">
         <v>44690</v>
       </c>
       <c r="C70">
-        <v>580282517</v>
+        <v>11179</v>
       </c>
       <c r="D70" t="s">
         <v>32</v>
@@ -2989,13 +2992,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1">
         <v>44500</v>
       </c>
       <c r="C71">
-        <v>542997850</v>
+        <v>11180</v>
       </c>
       <c r="D71" t="s">
         <v>32</v>
@@ -3018,13 +3021,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1">
         <v>44543</v>
       </c>
       <c r="C72">
-        <v>558640876</v>
+        <v>11181</v>
       </c>
       <c r="D72" t="s">
         <v>32</v>
@@ -3047,13 +3050,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1">
         <v>44207</v>
       </c>
       <c r="C73">
-        <v>489234824</v>
+        <v>11182</v>
       </c>
       <c r="D73" t="s">
         <v>32</v>
@@ -3088,13 +3091,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
         <v>44592</v>
       </c>
       <c r="C74">
-        <v>558640880</v>
+        <v>11183</v>
       </c>
       <c r="D74" t="s">
         <v>32</v>
@@ -3117,13 +3120,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1">
         <v>44635</v>
       </c>
       <c r="C75">
-        <v>580282514</v>
+        <v>11184</v>
       </c>
       <c r="D75" t="s">
         <v>32</v>
@@ -3146,13 +3149,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
         <v>44817</v>
       </c>
       <c r="C76">
-        <v>613928513</v>
+        <v>11185</v>
       </c>
       <c r="D76" t="s">
         <v>32</v>
@@ -3175,13 +3178,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
         <v>44732</v>
       </c>
       <c r="C77">
-        <v>597204584</v>
+        <v>11186</v>
       </c>
       <c r="D77" t="s">
         <v>32</v>
@@ -3204,13 +3207,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
         <v>44865</v>
       </c>
       <c r="C78">
-        <v>625381739</v>
+        <v>11187</v>
       </c>
       <c r="D78" t="s">
         <v>32</v>
@@ -3233,13 +3236,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>5999780441</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1">
         <v>45064</v>
       </c>
       <c r="C79">
-        <v>661964518</v>
+        <v>11188</v>
       </c>
       <c r="D79" t="s">
         <v>32</v>
